--- a/תורנים.xlsx
+++ b/תורנים.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\תורנים\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\toranim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F7B84A7-2060-4E50-9D5C-1B8E33E844F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{723AD8BA-F999-4118-99AF-0E96C76F9A3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="154">
   <si>
     <t xml:space="preserve">אחיה פישר </t>
   </si>
@@ -753,8 +753,8 @@
   <dimension ref="A1:G981"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
+      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B151" sqref="B151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -986,10 +986,10 @@
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="G11" t="s">
-        <v>40</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1006,10 +1006,10 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G12" t="s">
-        <v>90</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1026,10 +1026,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="G13" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1046,10 +1046,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
       <c r="G14" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1066,10 +1066,10 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="G15" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1086,10 +1086,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="G16" t="s">
-        <v>145</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1106,10 +1106,10 @@
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="G17" t="s">
-        <v>18</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1126,10 +1126,10 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1146,10 +1146,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="G19" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1166,10 +1166,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="G20" t="s">
-        <v>14</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1186,10 +1186,10 @@
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>121</v>
+        <v>50</v>
       </c>
       <c r="G21" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="G22" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1226,10 +1226,10 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>93</v>
+        <v>148</v>
       </c>
       <c r="G23" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1246,10 +1246,10 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="G24" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1266,10 +1266,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="G25" t="s">
-        <v>86</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1286,10 +1286,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="G26" t="s">
-        <v>38</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="F27" t="s">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="G27" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1326,10 +1326,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="s">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="G28" t="s">
-        <v>106</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1346,10 +1346,10 @@
         <v>0</v>
       </c>
       <c r="F29" t="s">
-        <v>15</v>
+        <v>116</v>
       </c>
       <c r="G29" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1366,10 +1366,10 @@
         <v>0</v>
       </c>
       <c r="F30" t="s">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c r="G30" t="s">
-        <v>1</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1386,10 +1386,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G31" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1406,10 +1406,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="G32" t="s">
-        <v>131</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1426,10 +1426,10 @@
         <v>0</v>
       </c>
       <c r="F33" t="s">
-        <v>130</v>
+        <v>57</v>
       </c>
       <c r="G33" t="s">
-        <v>70</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1446,10 +1446,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="G34" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1466,10 +1466,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="G35" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1486,10 +1486,10 @@
         <v>0</v>
       </c>
       <c r="F36" t="s">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1506,10 +1506,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="G37" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1526,10 +1526,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="G38" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1546,10 +1546,10 @@
         <v>0</v>
       </c>
       <c r="F39" t="s">
-        <v>142</v>
+        <v>16</v>
       </c>
       <c r="G39" t="s">
-        <v>144</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1566,10 +1566,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="s">
-        <v>24</v>
+        <v>142</v>
       </c>
       <c r="G40" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1586,10 +1586,10 @@
         <v>1</v>
       </c>
       <c r="F41" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G41" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1606,10 +1606,10 @@
         <v>0</v>
       </c>
       <c r="F42" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="G42" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1626,10 +1626,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="s">
-        <v>126</v>
+        <v>52</v>
       </c>
       <c r="G43" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1646,10 +1646,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="s">
-        <v>7</v>
+        <v>126</v>
       </c>
       <c r="G44" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1666,10 +1666,10 @@
         <v>0</v>
       </c>
       <c r="F45" t="s">
-        <v>109</v>
+        <v>7</v>
       </c>
       <c r="G45" t="s">
-        <v>13</v>
+        <v>104</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1686,10 +1686,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G46" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1706,10 +1706,10 @@
         <v>0</v>
       </c>
       <c r="F47" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="G47" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1726,10 +1726,10 @@
         <v>0</v>
       </c>
       <c r="F48" t="s">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="G48" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1746,10 +1746,10 @@
         <v>0</v>
       </c>
       <c r="F49" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G49" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1766,10 +1766,10 @@
         <v>0</v>
       </c>
       <c r="F50" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="G50" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1786,10 +1786,10 @@
         <v>1</v>
       </c>
       <c r="F51" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="G51" t="s">
-        <v>150</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1805,6 +1805,12 @@
       <c r="D52">
         <v>0</v>
       </c>
+      <c r="F52" t="s">
+        <v>75</v>
+      </c>
+      <c r="G52" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="53" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
@@ -1818,6 +1824,12 @@
       </c>
       <c r="D53">
         <v>0</v>
+      </c>
+      <c r="F53" t="s">
+        <v>35</v>
+      </c>
+      <c r="G53" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4013,12 +4025,9 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="I1:J981">
     <sortCondition ref="I1:I981"/>
   </sortState>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F53:G368 F2:G51" xr:uid="{383DA4F9-2BD9-48B5-A672-985E0D83AD2B}">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F53:G368 F2:G52" xr:uid="{383DA4F9-2BD9-48B5-A672-985E0D83AD2B}">
       <formula1>$A$2:$A$300</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F52:G52" xr:uid="{90360B2D-37E2-492D-A633-639F49F2588D}">
-      <formula1>$A$2:$A$150</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/תורנים.xlsx
+++ b/תורנים.xlsx
@@ -331,7 +331,7 @@
       <selection pane="bottomLeft" activeCell="B151" sqref="B151"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col width="13.7109375" customWidth="1" min="1" max="1"/>
     <col width="6.140625" customWidth="1" min="2" max="2"/>
@@ -386,10 +386,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -412,10 +412,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -438,10 +438,10 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -464,10 +464,10 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -490,10 +490,10 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -516,10 +516,10 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -542,7 +542,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -568,10 +568,10 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -594,10 +594,10 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -620,7 +620,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -646,10 +646,10 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -672,10 +672,10 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -698,10 +698,10 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -724,10 +724,10 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -750,10 +750,10 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -802,10 +802,10 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -828,10 +828,10 @@
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -880,7 +880,7 @@
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
@@ -906,10 +906,10 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -932,10 +932,10 @@
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -958,10 +958,10 @@
         <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -984,10 +984,10 @@
         <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1010,10 +1010,10 @@
         <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1036,10 +1036,10 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1062,10 +1062,10 @@
         <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1088,10 +1088,10 @@
         <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1114,10 +1114,10 @@
         <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1166,10 +1166,10 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
         <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -1218,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -1244,10 +1244,10 @@
         <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1270,10 +1270,10 @@
         <v>1</v>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1296,10 +1296,10 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
         <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -1348,10 +1348,10 @@
         <v>1</v>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1374,10 +1374,10 @@
         <v>1</v>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>1</v>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D41" t="n">
         <v>1</v>
@@ -1426,10 +1426,10 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -1452,10 +1452,10 @@
         <v>1</v>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -1478,10 +1478,10 @@
         <v>1</v>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -1504,10 +1504,10 @@
         <v>1</v>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -1530,10 +1530,10 @@
         <v>1</v>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -1556,10 +1556,10 @@
         <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -1582,10 +1582,10 @@
         <v>1</v>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -1608,10 +1608,10 @@
         <v>1</v>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -1634,10 +1634,10 @@
         <v>1</v>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>1</v>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D51" t="n">
         <v>1</v>
@@ -1686,10 +1686,10 @@
         <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -1712,10 +1712,10 @@
         <v>2</v>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -1738,10 +1738,10 @@
         <v>2</v>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" ht="13.5" customHeight="1">
@@ -1754,10 +1754,10 @@
         <v>2</v>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" ht="13.5" customHeight="1">
@@ -1770,10 +1770,10 @@
         <v>2</v>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" ht="13.5" customHeight="1">
@@ -1786,10 +1786,10 @@
         <v>2</v>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" ht="13.5" customHeight="1">
@@ -1802,10 +1802,10 @@
         <v>2</v>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" ht="13.5" customHeight="1">
@@ -1818,7 +1818,7 @@
         <v>2</v>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D59" t="n">
         <v>1</v>
@@ -1850,7 +1850,7 @@
         <v>2</v>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D61" t="n">
         <v>0</v>
@@ -1866,7 +1866,7 @@
         <v>2</v>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D62" t="n">
         <v>1</v>
@@ -1882,10 +1882,10 @@
         <v>2</v>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" ht="13.5" customHeight="1">
@@ -1898,10 +1898,10 @@
         <v>2</v>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" ht="13.5" customHeight="1">
@@ -1914,7 +1914,7 @@
         <v>2</v>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D65" t="n">
         <v>1</v>
@@ -1930,10 +1930,10 @@
         <v>2</v>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" ht="13.5" customHeight="1">
@@ -1946,10 +1946,10 @@
         <v>2</v>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" ht="13.5" customHeight="1">
@@ -1962,10 +1962,10 @@
         <v>2</v>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" ht="13.5" customHeight="1">
@@ -1978,10 +1978,10 @@
         <v>2</v>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" ht="13.5" customHeight="1">
@@ -2010,7 +2010,7 @@
         <v>2</v>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D71" t="n">
         <v>1</v>
@@ -2026,10 +2026,10 @@
         <v>2</v>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" ht="13.5" customHeight="1">
@@ -2042,10 +2042,10 @@
         <v>2</v>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" ht="13.5" customHeight="1">
@@ -2058,10 +2058,10 @@
         <v>2</v>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" ht="13.5" customHeight="1">
@@ -2074,7 +2074,7 @@
         <v>2</v>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D75" t="n">
         <v>1</v>
@@ -2090,10 +2090,10 @@
         <v>2</v>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" ht="13.5" customHeight="1">
@@ -2106,7 +2106,7 @@
         <v>2</v>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D77" t="n">
         <v>0</v>
@@ -2122,10 +2122,10 @@
         <v>2</v>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" ht="13.5" customHeight="1">
@@ -2138,10 +2138,10 @@
         <v>2</v>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" ht="13.5" customHeight="1">
@@ -2154,10 +2154,10 @@
         <v>2</v>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" ht="13.5" customHeight="1">
@@ -2170,10 +2170,10 @@
         <v>2</v>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" ht="13.5" customHeight="1">
@@ -2186,10 +2186,10 @@
         <v>2</v>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" ht="13.5" customHeight="1">
@@ -2202,10 +2202,10 @@
         <v>2</v>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" ht="13.5" customHeight="1">
@@ -2218,10 +2218,10 @@
         <v>2</v>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" ht="13.5" customHeight="1">
@@ -2234,10 +2234,10 @@
         <v>2</v>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" ht="13.5" customHeight="1">
@@ -2250,10 +2250,10 @@
         <v>2</v>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" ht="13.5" customHeight="1">
@@ -2282,7 +2282,7 @@
         <v>2</v>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D88" t="n">
         <v>0</v>
@@ -2314,10 +2314,10 @@
         <v>2</v>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" ht="13.5" customHeight="1">
@@ -2333,7 +2333,7 @@
         <v>1</v>
       </c>
       <c r="D91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" ht="13.5" customHeight="1">
@@ -2349,7 +2349,7 @@
         <v>1</v>
       </c>
       <c r="D92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" ht="13.5" customHeight="1">
@@ -2365,7 +2365,7 @@
         <v>1</v>
       </c>
       <c r="D93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" ht="13.5" customHeight="1">
@@ -2381,7 +2381,7 @@
         <v>1</v>
       </c>
       <c r="D94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" ht="13.5" customHeight="1">
@@ -2410,10 +2410,10 @@
         <v>2</v>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" ht="13.5" customHeight="1">
@@ -2426,7 +2426,7 @@
         <v>2</v>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D97" t="n">
         <v>1</v>
@@ -2442,10 +2442,10 @@
         <v>2</v>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" ht="13.5" customHeight="1">
@@ -2461,7 +2461,7 @@
         <v>1</v>
       </c>
       <c r="D99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" ht="13.5" customHeight="1">
@@ -2490,10 +2490,10 @@
         <v>2</v>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" ht="13.5" customHeight="1">
@@ -2506,10 +2506,10 @@
         <v>2</v>
       </c>
       <c r="C102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" ht="13.5" customHeight="1">
@@ -2522,10 +2522,10 @@
         <v>2</v>
       </c>
       <c r="C103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" ht="13.5" customHeight="1">
@@ -2541,7 +2541,7 @@
         <v>1</v>
       </c>
       <c r="D104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" ht="13.5" customHeight="1">
@@ -2570,10 +2570,10 @@
         <v>4</v>
       </c>
       <c r="C106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" ht="13.5" customHeight="1">
@@ -2589,7 +2589,7 @@
         <v>1</v>
       </c>
       <c r="D107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" ht="13.5" customHeight="1">
@@ -2602,10 +2602,10 @@
         <v>4</v>
       </c>
       <c r="C108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" ht="13.5" customHeight="1">
@@ -2637,7 +2637,7 @@
         <v>1</v>
       </c>
       <c r="D110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" ht="13.5" customHeight="1">
@@ -2653,7 +2653,7 @@
         <v>1</v>
       </c>
       <c r="D111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" ht="13.5" customHeight="1">
@@ -2666,10 +2666,10 @@
         <v>4</v>
       </c>
       <c r="C112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" ht="13.5" customHeight="1">
@@ -2701,7 +2701,7 @@
         <v>1</v>
       </c>
       <c r="D114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" ht="13.5" customHeight="1">
@@ -2717,7 +2717,7 @@
         <v>1</v>
       </c>
       <c r="D115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" ht="13.5" customHeight="1">
@@ -2746,10 +2746,10 @@
         <v>4</v>
       </c>
       <c r="C117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" ht="13.5" customHeight="1">
@@ -2765,7 +2765,7 @@
         <v>1</v>
       </c>
       <c r="D118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" ht="13.5" customHeight="1">
@@ -2781,7 +2781,7 @@
         <v>1</v>
       </c>
       <c r="D119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" ht="13.5" customHeight="1">
@@ -2810,10 +2810,10 @@
         <v>5</v>
       </c>
       <c r="C121" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" ht="13.5" customHeight="1">
@@ -2829,7 +2829,7 @@
         <v>1</v>
       </c>
       <c r="D122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" ht="13.5" customHeight="1">
@@ -2845,7 +2845,7 @@
         <v>1</v>
       </c>
       <c r="D123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" ht="13.5" customHeight="1">
@@ -2861,7 +2861,7 @@
         <v>1</v>
       </c>
       <c r="D124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" ht="13.5" customHeight="1">
@@ -2877,7 +2877,7 @@
         <v>1</v>
       </c>
       <c r="D125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" ht="13.5" customHeight="1">
@@ -2909,7 +2909,7 @@
         <v>1</v>
       </c>
       <c r="D127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" ht="13.5" customHeight="1">
@@ -2941,7 +2941,7 @@
         <v>1</v>
       </c>
       <c r="D129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" ht="13.5" customHeight="1">
@@ -2954,10 +2954,10 @@
         <v>5</v>
       </c>
       <c r="C130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" ht="13.5" customHeight="1">
@@ -2973,7 +2973,7 @@
         <v>1</v>
       </c>
       <c r="D131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" ht="13.5" customHeight="1">
@@ -2986,10 +2986,10 @@
         <v>5</v>
       </c>
       <c r="C132" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" ht="13.5" customHeight="1">
@@ -3005,7 +3005,7 @@
         <v>1</v>
       </c>
       <c r="D133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" ht="13.5" customHeight="1">
@@ -3018,10 +3018,10 @@
         <v>5</v>
       </c>
       <c r="C134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" ht="13.5" customHeight="1">
@@ -3037,7 +3037,7 @@
         <v>1</v>
       </c>
       <c r="D135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" ht="13.5" customHeight="1">
@@ -3053,7 +3053,7 @@
         <v>1</v>
       </c>
       <c r="D136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" ht="13.5" customHeight="1">
@@ -3069,7 +3069,7 @@
         <v>1</v>
       </c>
       <c r="D137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" ht="13.5" customHeight="1">
@@ -3101,7 +3101,7 @@
         <v>1</v>
       </c>
       <c r="D139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" ht="13.5" customHeight="1">
@@ -3133,7 +3133,7 @@
         <v>1</v>
       </c>
       <c r="D141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" ht="13.5" customHeight="1">
@@ -3162,10 +3162,10 @@
         <v>5</v>
       </c>
       <c r="C143" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" ht="13.5" customHeight="1">
@@ -3178,10 +3178,10 @@
         <v>5</v>
       </c>
       <c r="C144" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" ht="13.5" customHeight="1">
@@ -3194,10 +3194,10 @@
         <v>5</v>
       </c>
       <c r="C145" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" ht="13.5" customHeight="1">
@@ -3213,7 +3213,7 @@
         <v>1</v>
       </c>
       <c r="D146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" ht="13.5" customHeight="1">
@@ -3261,7 +3261,7 @@
         <v>1</v>
       </c>
       <c r="D149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" ht="13.5" customHeight="1">
@@ -3277,7 +3277,7 @@
         <v>1</v>
       </c>
       <c r="D150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" ht="13.5" customHeight="1"/>

--- a/תורנים.xlsx
+++ b/תורנים.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\toranim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF8F18FD-BEFB-4C8A-AC0F-C8DA0E6A0524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D88D8C-C50B-48C2-90F9-A3932FBF612D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="154">
   <si>
     <t>שם</t>
   </si>
@@ -737,7 +737,7 @@
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
+      <selection pane="bottomLeft" activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1069,10 +1069,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G16" t="s">
-        <v>47</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1089,10 +1089,10 @@
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1109,10 +1109,10 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1129,10 +1129,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1149,10 +1149,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>125</v>
+        <v>42</v>
       </c>
       <c r="G20" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1169,10 +1169,10 @@
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="G21" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1189,10 +1189,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G22" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="G23" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1229,10 +1229,10 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G24" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1249,10 +1249,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G25" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1269,10 +1269,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G26" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1289,10 +1289,10 @@
         <v>0</v>
       </c>
       <c r="F27" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="G27" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="G28" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1329,10 +1329,10 @@
         <v>0</v>
       </c>
       <c r="F29" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="G29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1349,10 +1349,10 @@
         <v>0</v>
       </c>
       <c r="F30" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="G30" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1369,10 +1369,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G31" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1389,10 +1389,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G32" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1409,10 +1409,10 @@
         <v>0</v>
       </c>
       <c r="F33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G33" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1429,10 +1429,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="G34" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1449,10 +1449,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="G35" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1469,10 +1469,10 @@
         <v>0</v>
       </c>
       <c r="F36" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G36" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1489,10 +1489,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G37" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1509,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G38" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1529,10 +1529,10 @@
         <v>0</v>
       </c>
       <c r="F39" t="s">
-        <v>128</v>
+        <v>91</v>
       </c>
       <c r="G39" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1549,10 +1549,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="G40" t="s">
-        <v>95</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1569,10 +1569,10 @@
         <v>1</v>
       </c>
       <c r="F41" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G41" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1589,10 +1589,10 @@
         <v>0</v>
       </c>
       <c r="F42" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G42" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1609,10 +1609,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="G43" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1629,10 +1629,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G44" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1649,10 +1649,10 @@
         <v>0</v>
       </c>
       <c r="F45" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G45" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1669,10 +1669,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="G46" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1689,10 +1689,10 @@
         <v>0</v>
       </c>
       <c r="F47" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G47" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1709,10 +1709,10 @@
         <v>0</v>
       </c>
       <c r="F48" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G48" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1729,10 +1729,10 @@
         <v>0</v>
       </c>
       <c r="F49" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G49" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1749,10 +1749,10 @@
         <v>0</v>
       </c>
       <c r="F50" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G50" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1769,10 +1769,10 @@
         <v>1</v>
       </c>
       <c r="F51" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="G51" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1789,10 +1789,10 @@
         <v>0</v>
       </c>
       <c r="F52" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="G52" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1809,10 +1809,10 @@
         <v>0</v>
       </c>
       <c r="F53" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="G53" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1829,10 +1829,10 @@
         <v>0</v>
       </c>
       <c r="F54" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1849,10 +1849,10 @@
         <v>0</v>
       </c>
       <c r="F55" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="G55" t="s">
-        <v>5</v>
+        <v>122</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1867,6 +1867,12 @@
       </c>
       <c r="D56">
         <v>0</v>
+      </c>
+      <c r="F56" t="s">
+        <v>123</v>
+      </c>
+      <c r="G56" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4018,7 +4024,7 @@
     <row r="981" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F56:G368 F2:G3 F4:G55" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F23:G368 F2:G22" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$A$2:$A$300</formula1>
     </dataValidation>
   </dataValidations>

--- a/תורנים.xlsx
+++ b/תורנים.xlsx
@@ -331,7 +331,7 @@
       <selection pane="bottomLeft" activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" outlineLevelCol="0"/>
   <cols>
     <col width="13.7109375" customWidth="1" min="1" max="1"/>
     <col width="6.140625" customWidth="1" min="2" max="2"/>
@@ -386,10 +386,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -412,10 +412,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -438,10 +438,10 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -464,10 +464,10 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -490,10 +490,10 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -516,10 +516,10 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -542,7 +542,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -568,10 +568,10 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -594,10 +594,10 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -620,7 +620,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -646,10 +646,10 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -672,10 +672,10 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -698,10 +698,10 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -724,10 +724,10 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -750,10 +750,10 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -802,10 +802,10 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -828,10 +828,10 @@
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -880,7 +880,7 @@
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
@@ -906,7 +906,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -932,7 +932,7 @@
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -984,7 +984,7 @@
         <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -1010,7 +1010,7 @@
         <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -1036,7 +1036,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -1166,7 +1166,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -1218,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -1270,7 +1270,7 @@
         <v>1</v>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -1296,7 +1296,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -1322,10 +1322,10 @@
         <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -1374,7 +1374,7 @@
         <v>1</v>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>2</v>
       </c>
       <c r="C53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>0</v>
@@ -1816,10 +1816,10 @@
         <v>2</v>
       </c>
       <c r="C57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" ht="13.5" customHeight="1">
@@ -1880,7 +1880,7 @@
         <v>2</v>
       </c>
       <c r="C61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>0</v>
@@ -1912,10 +1912,10 @@
         <v>2</v>
       </c>
       <c r="C63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" ht="13.5" customHeight="1">
@@ -2088,7 +2088,7 @@
         <v>2</v>
       </c>
       <c r="C74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>0</v>
@@ -2120,7 +2120,7 @@
         <v>2</v>
       </c>
       <c r="C76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>0</v>
@@ -2136,7 +2136,7 @@
         <v>2</v>
       </c>
       <c r="C77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>0</v>
@@ -2152,7 +2152,7 @@
         <v>2</v>
       </c>
       <c r="C78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>0</v>
@@ -2168,10 +2168,10 @@
         <v>2</v>
       </c>
       <c r="C79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" ht="13.5" customHeight="1">
@@ -2184,10 +2184,10 @@
         <v>2</v>
       </c>
       <c r="C80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" ht="13.5" customHeight="1">
@@ -2200,7 +2200,7 @@
         <v>2</v>
       </c>
       <c r="C81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>0</v>
@@ -2248,10 +2248,10 @@
         <v>2</v>
       </c>
       <c r="C84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" ht="13.5" customHeight="1">
@@ -2600,7 +2600,7 @@
         <v>4</v>
       </c>
       <c r="C106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D106" t="n">
         <v>0</v>
@@ -2632,7 +2632,7 @@
         <v>4</v>
       </c>
       <c r="C108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D108" t="n">
         <v>0</v>
@@ -2776,10 +2776,10 @@
         <v>4</v>
       </c>
       <c r="C117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" ht="13.5" customHeight="1">
@@ -2840,7 +2840,7 @@
         <v>5</v>
       </c>
       <c r="C121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D121" t="n">
         <v>0</v>
@@ -2984,7 +2984,7 @@
         <v>5</v>
       </c>
       <c r="C130" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D130" t="n">
         <v>0</v>
@@ -3192,10 +3192,10 @@
         <v>5</v>
       </c>
       <c r="C143" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" ht="13.5" customHeight="1">
@@ -3208,10 +3208,10 @@
         <v>5</v>
       </c>
       <c r="C144" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" ht="13.5" customHeight="1">
@@ -3224,7 +3224,7 @@
         <v>5</v>
       </c>
       <c r="C145" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D145" t="n">
         <v>0</v>
@@ -3256,7 +3256,7 @@
         <v>5</v>
       </c>
       <c r="C147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D147" t="n">
         <v>1</v>
